--- a/IS_456_BEAM/HQ_Beam_Specification_0811_2.xlsx
+++ b/IS_456_BEAM/HQ_Beam_Specification_0811_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -2680,6 +2680,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2719,79 +2722,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2821,23 +2755,77 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2860,10 +2848,37 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2893,21 +2908,6 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17265,41 +17265,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="5:13" ht="14.25" customHeight="1">
@@ -17321,118 +17321,118 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42958</v>
+        <v>42968</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="147" t="s">
+      <c r="F14" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="151"/>
     </row>
     <row r="15" spans="5:13" ht="15">
       <c r="E15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="146"/>
     </row>
     <row r="16" spans="5:13" ht="15">
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="142" t="s">
+      <c r="F16" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="143"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="146"/>
     </row>
     <row r="17" spans="5:12" ht="15">
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="142" t="s">
+      <c r="F17" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="143"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
     </row>
     <row r="18" spans="5:12" ht="30">
       <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="143"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="146"/>
     </row>
     <row r="19" spans="5:12" ht="15">
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="143"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="146"/>
     </row>
     <row r="20" spans="5:12" ht="15">
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="143"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="146"/>
     </row>
     <row r="21" spans="5:12" ht="33.75" customHeight="1" thickBot="1">
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="144" t="s">
+      <c r="F21" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="145"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="148"/>
     </row>
     <row r="22" spans="5:12" ht="15">
       <c r="E22" s="3"/>
@@ -17472,8 +17472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP118"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26:M27"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17491,14 +17491,14 @@
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
@@ -17509,12 +17509,12 @@
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
@@ -17525,12 +17525,12 @@
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
@@ -17541,12 +17541,12 @@
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -23026,14 +23026,14 @@
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
-      <c r="F1" s="154" t="s">
+      <c r="F1" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
       <c r="L1" s="65"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
@@ -23047,12 +23047,12 @@
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
       <c r="N2" s="65"/>
@@ -23066,12 +23066,12 @@
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
       <c r="N3" s="65"/>
@@ -23085,12 +23085,12 @@
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="65"/>
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
@@ -23248,14 +23248,14 @@
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
-      <c r="F1" s="154" t="s">
+      <c r="F1" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
       <c r="L1" s="65"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
@@ -23269,12 +23269,12 @@
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
       <c r="N2" s="65"/>
@@ -23288,12 +23288,12 @@
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
       <c r="N3" s="65"/>
@@ -23307,12 +23307,12 @@
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="65"/>
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
@@ -23341,8 +23341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23353,14 +23353,14 @@
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
-      <c r="F1" s="154" t="s">
+      <c r="F1" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
       <c r="L1" s="65"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
@@ -23374,12 +23374,12 @@
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
       <c r="N2" s="65"/>
@@ -23393,12 +23393,12 @@
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
       <c r="E3" s="65"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
       <c r="N3" s="65"/>
@@ -23412,12 +23412,12 @@
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="65"/>
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
@@ -23469,24 +23469,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="182"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="162"/>
       <c r="Q1" s="113"/>
       <c r="R1" s="113"/>
       <c r="S1" s="113"/>
@@ -23496,22 +23496,22 @@
       <c r="W1" s="113"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="183"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
       <c r="Q2" s="113"/>
       <c r="R2" s="113"/>
       <c r="S2" s="113"/>
@@ -23521,22 +23521,22 @@
       <c r="W2" s="113"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="183"/>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
-      <c r="N3" s="184"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="185"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
       <c r="Q3" s="113"/>
       <c r="R3" s="113"/>
       <c r="S3" s="113"/>
@@ -23546,22 +23546,22 @@
       <c r="W3" s="113"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="186"/>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
-      <c r="O4" s="187"/>
-      <c r="P4" s="188"/>
+      <c r="A4" s="166"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="168"/>
       <c r="Q4" s="113"/>
       <c r="R4" s="113"/>
       <c r="S4" s="113"/>
@@ -23677,385 +23677,385 @@
         <v>117</v>
       </c>
       <c r="D10" s="92"/>
-      <c r="E10" s="169" t="s">
+      <c r="E10" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="169" t="s">
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="171"/>
-      <c r="J10" s="169" t="s">
+      <c r="I10" s="159"/>
+      <c r="J10" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="171"/>
-      <c r="L10" s="169" t="s">
+      <c r="K10" s="159"/>
+      <c r="L10" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="171"/>
-      <c r="N10" s="169" t="s">
+      <c r="M10" s="159"/>
+      <c r="N10" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="159"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="184" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="163" t="s">
+      <c r="E11" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="156"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="170"/>
       <c r="N11" s="172"/>
       <c r="O11" s="173"/>
       <c r="P11" s="174"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="158"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="160"/>
+      <c r="A12" s="189"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="185"/>
       <c r="D12" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="175" t="s">
+      <c r="E12" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="176"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="156"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="170"/>
       <c r="N12" s="172"/>
       <c r="O12" s="173"/>
       <c r="P12" s="174"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="158"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="178" t="s">
+      <c r="A13" s="189"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="191" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D13" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="156"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="170"/>
       <c r="N13" s="172"/>
       <c r="O13" s="173"/>
       <c r="P13" s="174"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="158"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="175" t="s">
+      <c r="A14" s="189"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="156"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="170"/>
       <c r="N14" s="172"/>
       <c r="O14" s="173"/>
       <c r="P14" s="174"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="159" t="s">
+      <c r="A15" s="189"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="161" t="s">
+      <c r="D15" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="163" t="s">
+      <c r="E15" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="156"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="170"/>
       <c r="N15" s="172"/>
       <c r="O15" s="173"/>
       <c r="P15" s="174"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="158"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="175" t="s">
+      <c r="A16" s="189"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="156"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="170"/>
       <c r="N16" s="172"/>
       <c r="O16" s="173"/>
       <c r="P16" s="174"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="158"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="159" t="s">
+      <c r="A17" s="189"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="184" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="161" t="s">
+      <c r="D17" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="163" t="s">
+      <c r="E17" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="164"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="156"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="170"/>
       <c r="N17" s="172"/>
       <c r="O17" s="173"/>
       <c r="P17" s="174"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="158"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="166" t="s">
+      <c r="A18" s="189"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="167"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="156"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="170"/>
       <c r="N18" s="172"/>
       <c r="O18" s="173"/>
       <c r="P18" s="174"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="158"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159" t="s">
+      <c r="A19" s="189"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="D19" s="161" t="s">
+      <c r="D19" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="E19" s="163" t="s">
+      <c r="E19" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="164"/>
-      <c r="G19" s="165"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
       <c r="H19" s="126"/>
       <c r="I19" s="127"/>
       <c r="J19" s="126"/>
       <c r="K19" s="127"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="156"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="170"/>
       <c r="N19" s="122"/>
       <c r="O19" s="123"/>
       <c r="P19" s="124"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="158"/>
+      <c r="A20" s="189"/>
       <c r="B20" s="125"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="168"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="180"/>
       <c r="H20" s="126"/>
       <c r="I20" s="127"/>
       <c r="J20" s="126"/>
       <c r="K20" s="127"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="156"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="170"/>
       <c r="N20" s="122"/>
       <c r="O20" s="123"/>
       <c r="P20" s="124"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="158"/>
-      <c r="B21" s="157" t="s">
+      <c r="A21" s="189"/>
+      <c r="B21" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="159" t="s">
+      <c r="C21" s="184" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="163" t="s">
+      <c r="E21" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="156"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="170"/>
       <c r="N21" s="172"/>
       <c r="O21" s="173"/>
       <c r="P21" s="174"/>
     </row>
     <row r="22" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="158"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="160"/>
+      <c r="A22" s="189"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="185"/>
       <c r="D22" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="175" t="s">
+      <c r="E22" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="156"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="170"/>
       <c r="N22" s="172"/>
       <c r="O22" s="173"/>
       <c r="P22" s="174"/>
     </row>
     <row r="23" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="158"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="178" t="s">
+      <c r="A23" s="189"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="191" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="161" t="s">
+      <c r="D23" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="163" t="s">
+      <c r="E23" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="156"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="170"/>
       <c r="N23" s="172"/>
       <c r="O23" s="173"/>
       <c r="P23" s="174"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="158"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="175" t="s">
+      <c r="A24" s="189"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="156"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="187"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="169"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="170"/>
       <c r="N24" s="172"/>
       <c r="O24" s="173"/>
       <c r="P24" s="174"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="158"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="159" t="s">
+      <c r="A25" s="189"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="161" t="s">
+      <c r="D25" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="163" t="s">
+      <c r="E25" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="156"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="170"/>
       <c r="N25" s="172"/>
       <c r="O25" s="173"/>
       <c r="P25" s="174"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="158"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="175" t="s">
+      <c r="A26" s="189"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="156"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="169"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="170"/>
       <c r="N26" s="172"/>
       <c r="O26" s="173"/>
       <c r="P26" s="174"/>
@@ -24063,25 +24063,25 @@
       <c r="R26" s="85"/>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="158"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="159" t="s">
+      <c r="A27" s="189"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="184" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="161" t="s">
+      <c r="D27" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="163" t="s">
+      <c r="E27" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="164"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="156"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="169"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="170"/>
       <c r="N27" s="172"/>
       <c r="O27" s="173"/>
       <c r="P27" s="174"/>
@@ -24089,21 +24089,21 @@
       <c r="R27" s="85"/>
     </row>
     <row r="28" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="158"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="166" t="s">
+      <c r="A28" s="189"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="167"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="156"/>
+      <c r="F28" s="179"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="170"/>
       <c r="N28" s="172"/>
       <c r="O28" s="173"/>
       <c r="P28" s="174"/>
@@ -24111,25 +24111,25 @@
       <c r="R28" s="85"/>
     </row>
     <row r="29" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="158"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="159" t="s">
+      <c r="A29" s="189"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="161" t="s">
+      <c r="D29" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="163" t="s">
+      <c r="E29" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="164"/>
-      <c r="G29" s="165"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="183"/>
       <c r="H29" s="126"/>
       <c r="I29" s="127"/>
       <c r="J29" s="126"/>
       <c r="K29" s="127"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="156"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="170"/>
       <c r="N29" s="122"/>
       <c r="O29" s="123"/>
       <c r="P29" s="124"/>
@@ -24137,19 +24137,19 @@
       <c r="R29" s="85"/>
     </row>
     <row r="30" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="158"/>
+      <c r="A30" s="189"/>
       <c r="B30" s="125"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="180"/>
       <c r="H30" s="126"/>
       <c r="I30" s="127"/>
       <c r="J30" s="126"/>
       <c r="K30" s="127"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="156"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="170"/>
       <c r="N30" s="122"/>
       <c r="O30" s="123"/>
       <c r="P30" s="124"/>
@@ -24157,27 +24157,27 @@
       <c r="R30" s="85"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="158"/>
-      <c r="B31" s="157" t="s">
+      <c r="A31" s="189"/>
+      <c r="B31" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="184" t="s">
         <v>150</v>
       </c>
       <c r="D31" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="163" t="s">
+      <c r="E31" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="156"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="170"/>
       <c r="N31" s="172"/>
       <c r="O31" s="173"/>
       <c r="P31" s="174"/>
@@ -24185,23 +24185,23 @@
       <c r="R31" s="85"/>
     </row>
     <row r="32" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="158"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="160"/>
+      <c r="A32" s="189"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="185"/>
       <c r="D32" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="175" t="s">
+      <c r="E32" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="156"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="169"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="170"/>
       <c r="N32" s="172"/>
       <c r="O32" s="173"/>
       <c r="P32" s="174"/>
@@ -24209,175 +24209,175 @@
       <c r="R32" s="85"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="158"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="178" t="s">
+      <c r="A33" s="189"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="191" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="161" t="s">
+      <c r="D33" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="163" t="s">
+      <c r="E33" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="156"/>
+      <c r="F33" s="182"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="170"/>
       <c r="N33" s="172"/>
       <c r="O33" s="173"/>
       <c r="P33" s="174"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A34" s="158"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="175" t="s">
+      <c r="A34" s="189"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="156"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="169"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="169"/>
+      <c r="M34" s="170"/>
       <c r="N34" s="172"/>
       <c r="O34" s="173"/>
       <c r="P34" s="174"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="158"/>
-      <c r="B35" s="158"/>
-      <c r="C35" s="159" t="s">
+      <c r="A35" s="189"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="161" t="s">
+      <c r="D35" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="163" t="s">
+      <c r="E35" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="156"/>
+      <c r="F35" s="182"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="169"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="169"/>
+      <c r="M35" s="170"/>
       <c r="N35" s="172"/>
       <c r="O35" s="173"/>
       <c r="P35" s="174"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="158"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="175" t="s">
+      <c r="A36" s="189"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="156"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="169"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="169"/>
+      <c r="M36" s="170"/>
       <c r="N36" s="172"/>
       <c r="O36" s="173"/>
       <c r="P36" s="174"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="158"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="159" t="s">
+      <c r="A37" s="189"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="184" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="161" t="s">
+      <c r="D37" s="175" t="s">
         <v>148</v>
       </c>
-      <c r="E37" s="163" t="s">
+      <c r="E37" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="164"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="156"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="170"/>
       <c r="N37" s="172"/>
       <c r="O37" s="173"/>
       <c r="P37" s="174"/>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="158"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="178"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="166" t="s">
+      <c r="A38" s="189"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="167"/>
-      <c r="G38" s="168"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="180"/>
       <c r="H38" s="126"/>
       <c r="I38" s="127"/>
       <c r="J38" s="126"/>
       <c r="K38" s="127"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="156"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="170"/>
       <c r="N38" s="122"/>
       <c r="O38" s="123"/>
       <c r="P38" s="124"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="158"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="159" t="s">
+      <c r="A39" s="189"/>
+      <c r="B39" s="189"/>
+      <c r="C39" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="D39" s="161" t="s">
+      <c r="D39" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="E39" s="163" t="s">
+      <c r="E39" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="164"/>
-      <c r="G39" s="165"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="183"/>
       <c r="H39" s="94"/>
       <c r="I39" s="127"/>
       <c r="J39" s="126"/>
       <c r="K39" s="127"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="156"/>
+      <c r="L39" s="169"/>
+      <c r="M39" s="170"/>
       <c r="N39" s="122"/>
       <c r="O39" s="123"/>
       <c r="P39" s="124"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="177"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="156"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="156"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="169"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="169"/>
+      <c r="M40" s="170"/>
       <c r="N40" s="172"/>
       <c r="O40" s="173"/>
       <c r="P40" s="174"/>
@@ -24404,6 +24404,148 @@
     </row>
   </sheetData>
   <mergeCells count="166">
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="E29:G30"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A11:A40"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="A1:P4"/>
     <mergeCell ref="J40:K40"/>
@@ -24428,148 +24570,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A11:A40"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="E29:G30"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24579,7 +24579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="AJ35" sqref="AJ35"/>
     </sheetView>
   </sheetViews>
@@ -24594,66 +24594,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="193"/>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193" t="s">
+      <c r="A1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="193"/>
-      <c r="AB1" s="193"/>
-      <c r="AC1" s="193"/>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="193"/>
-      <c r="AG1" s="193"/>
-      <c r="AH1" s="193"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="205"/>
+      <c r="P1" s="205"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="205"/>
+      <c r="S1" s="205"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="205"/>
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="205"/>
+      <c r="AH1" s="205"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="193"/>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="193" t="s">
+      <c r="I2" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -24670,10 +24670,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="193"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -24766,14 +24766,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -24805,12 +24805,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="194"/>
-      <c r="B5" s="199" t="s">
+      <c r="A5" s="206"/>
+      <c r="B5" s="197" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
       <c r="E5" s="16"/>
       <c r="F5" s="107"/>
       <c r="G5" s="107"/>
@@ -24843,12 +24843,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="194"/>
-      <c r="B6" s="199" t="s">
+      <c r="A6" s="206"/>
+      <c r="B6" s="197" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
       <c r="E6" s="16"/>
       <c r="F6" s="107"/>
       <c r="G6" s="107"/>
@@ -24881,12 +24881,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="194"/>
-      <c r="B7" s="199" t="s">
+      <c r="A7" s="206"/>
+      <c r="B7" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
       <c r="E7" s="16"/>
       <c r="F7" s="107"/>
       <c r="G7" s="107"/>
@@ -24956,66 +24956,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="193"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193" t="s">
+      <c r="A9" s="205"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="193"/>
-      <c r="V9" s="193"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193"/>
-      <c r="AB9" s="193"/>
-      <c r="AC9" s="193"/>
-      <c r="AD9" s="193"/>
-      <c r="AE9" s="193"/>
-      <c r="AF9" s="193"/>
-      <c r="AG9" s="193"/>
-      <c r="AH9" s="193"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="205"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="205"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="205"/>
+      <c r="W9" s="205"/>
+      <c r="X9" s="205"/>
+      <c r="Y9" s="205"/>
+      <c r="Z9" s="205"/>
+      <c r="AA9" s="205"/>
+      <c r="AB9" s="205"/>
+      <c r="AC9" s="205"/>
+      <c r="AD9" s="205"/>
+      <c r="AE9" s="205"/>
+      <c r="AF9" s="205"/>
+      <c r="AG9" s="205"/>
+      <c r="AH9" s="205"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="193"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="193" t="s">
+      <c r="I10" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="193"/>
-      <c r="S10" s="193"/>
-      <c r="T10" s="193"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -25032,10 +25032,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="193"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
+      <c r="A11" s="205"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -25132,10 +25132,10 @@
       <c r="B12" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="202" t="s">
+      <c r="C12" s="203" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="203"/>
+      <c r="D12" s="204"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -25168,13 +25168,13 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="196" t="s">
+      <c r="A13" s="194" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="200" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="190" t="s">
+      <c r="C13" s="200" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="23" t="s">
@@ -25212,9 +25212,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="197"/>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
+      <c r="A14" s="195"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="202"/>
       <c r="D14" s="23" t="s">
         <v>134</v>
       </c>
@@ -25250,9 +25250,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="197"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="191"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
       <c r="D15" s="23" t="s">
         <v>135</v>
       </c>
@@ -25288,9 +25288,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="197"/>
-      <c r="B16" s="191"/>
-      <c r="C16" s="191"/>
+      <c r="A16" s="195"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="202"/>
       <c r="D16" s="23" t="s">
         <v>136</v>
       </c>
@@ -25326,9 +25326,9 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="197"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="191"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="202"/>
       <c r="D17" s="23" t="s">
         <v>137</v>
       </c>
@@ -25364,9 +25364,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="197"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="191"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="202"/>
       <c r="D18" s="23" t="s">
         <v>138</v>
       </c>
@@ -25402,9 +25402,9 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="197"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="192"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="128" t="s">
         <v>222</v>
       </c>
@@ -25440,9 +25440,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="197"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="190" t="s">
+      <c r="A20" s="195"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="200" t="s">
         <v>139</v>
       </c>
       <c r="D20" s="23" t="s">
@@ -25480,9 +25480,9 @@
       <c r="AH20" s="13"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="197"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
+      <c r="A21" s="195"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="202"/>
       <c r="D21" s="23" t="s">
         <v>134</v>
       </c>
@@ -25518,9 +25518,9 @@
       <c r="AH21" s="13"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="197"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
+      <c r="A22" s="195"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="202"/>
       <c r="D22" s="23" t="s">
         <v>135</v>
       </c>
@@ -25556,9 +25556,9 @@
       <c r="AH22" s="13"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="197"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
+      <c r="A23" s="195"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="202"/>
       <c r="D23" s="23" t="s">
         <v>136</v>
       </c>
@@ -25594,9 +25594,9 @@
       <c r="AH23" s="13"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="197"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
+      <c r="A24" s="195"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="202"/>
       <c r="D24" s="23" t="s">
         <v>137</v>
       </c>
@@ -25632,9 +25632,9 @@
       <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="197"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
+      <c r="A25" s="195"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="202"/>
       <c r="D25" s="23" t="s">
         <v>138</v>
       </c>
@@ -25670,9 +25670,9 @@
       <c r="AH25" s="13"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="197"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="192"/>
+      <c r="A26" s="195"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="201"/>
       <c r="D26" s="128" t="s">
         <v>222</v>
       </c>
@@ -25708,9 +25708,9 @@
       <c r="AH26" s="13"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="197"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="190" t="s">
+      <c r="A27" s="195"/>
+      <c r="B27" s="202"/>
+      <c r="C27" s="200" t="s">
         <v>140</v>
       </c>
       <c r="D27" s="23" t="s">
@@ -25748,9 +25748,9 @@
       <c r="AH27" s="13"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="197"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
+      <c r="A28" s="195"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="202"/>
       <c r="D28" s="23" t="s">
         <v>134</v>
       </c>
@@ -25786,9 +25786,9 @@
       <c r="AH28" s="13"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="197"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
+      <c r="A29" s="195"/>
+      <c r="B29" s="202"/>
+      <c r="C29" s="202"/>
       <c r="D29" s="23" t="s">
         <v>135</v>
       </c>
@@ -25824,9 +25824,9 @@
       <c r="AH29" s="13"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="197"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
+      <c r="A30" s="195"/>
+      <c r="B30" s="202"/>
+      <c r="C30" s="202"/>
       <c r="D30" s="23" t="s">
         <v>136</v>
       </c>
@@ -25862,9 +25862,9 @@
       <c r="AH30" s="13"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="197"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
+      <c r="A31" s="195"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
       <c r="D31" s="23" t="s">
         <v>137</v>
       </c>
@@ -25900,9 +25900,9 @@
       <c r="AH31" s="13"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="197"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
+      <c r="A32" s="195"/>
+      <c r="B32" s="202"/>
+      <c r="C32" s="202"/>
       <c r="D32" s="23" t="s">
         <v>138</v>
       </c>
@@ -25938,9 +25938,9 @@
       <c r="AH32" s="13"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="197"/>
+      <c r="A33" s="195"/>
       <c r="B33" s="130"/>
-      <c r="C33" s="192"/>
+      <c r="C33" s="201"/>
       <c r="D33" s="131" t="s">
         <v>222</v>
       </c>
@@ -25976,8 +25976,8 @@
       <c r="AH33" s="13"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="197"/>
-      <c r="B34" s="196" t="s">
+      <c r="A34" s="195"/>
+      <c r="B34" s="194" t="s">
         <v>131</v>
       </c>
       <c r="C34" s="129" t="s">
@@ -26018,9 +26018,9 @@
       <c r="AH34" s="13"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="197"/>
-      <c r="B35" s="197"/>
-      <c r="C35" s="190" t="s">
+      <c r="A35" s="195"/>
+      <c r="B35" s="195"/>
+      <c r="C35" s="200" t="s">
         <v>199</v>
       </c>
       <c r="D35" s="110" t="s">
@@ -26058,9 +26058,9 @@
       <c r="AH35" s="13"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="197"/>
-      <c r="B36" s="197"/>
-      <c r="C36" s="192"/>
+      <c r="A36" s="195"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="201"/>
       <c r="D36" s="110" t="s">
         <v>201</v>
       </c>
@@ -26107,14 +26107,14 @@
       <c r="AS36" s="30"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="197"/>
-      <c r="B37" s="195" t="s">
+      <c r="A37" s="195"/>
+      <c r="B37" s="193" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="200" t="s">
+      <c r="C37" s="198" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="201"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -26158,12 +26158,12 @@
       <c r="AS37" s="30"/>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="197"/>
-      <c r="B38" s="195"/>
-      <c r="C38" s="200" t="s">
+      <c r="A38" s="195"/>
+      <c r="B38" s="193"/>
+      <c r="C38" s="198" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="201"/>
+      <c r="D38" s="199"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -26207,11 +26207,11 @@
       <c r="AS38" s="30"/>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="197"/>
-      <c r="B39" s="195" t="s">
+      <c r="A39" s="195"/>
+      <c r="B39" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="195" t="s">
+      <c r="C39" s="193" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="108" t="s">
@@ -26260,9 +26260,9 @@
       <c r="AS39" s="30"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="197"/>
-      <c r="B40" s="195"/>
-      <c r="C40" s="195"/>
+      <c r="A40" s="195"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="193"/>
       <c r="D40" s="108" t="s">
         <v>18</v>
       </c>
@@ -26309,9 +26309,9 @@
       <c r="AS40" s="30"/>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="197"/>
-      <c r="B41" s="195"/>
-      <c r="C41" s="195"/>
+      <c r="A41" s="195"/>
+      <c r="B41" s="193"/>
+      <c r="C41" s="193"/>
       <c r="D41" s="108" t="s">
         <v>19</v>
       </c>
@@ -26358,9 +26358,9 @@
       <c r="AS41" s="30"/>
     </row>
     <row r="42" spans="1:45">
-      <c r="A42" s="197"/>
-      <c r="B42" s="195"/>
-      <c r="C42" s="195"/>
+      <c r="A42" s="195"/>
+      <c r="B42" s="193"/>
+      <c r="C42" s="193"/>
       <c r="D42" s="108" t="s">
         <v>20</v>
       </c>
@@ -26407,9 +26407,9 @@
       <c r="AS42" s="30"/>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="197"/>
-      <c r="B43" s="195"/>
-      <c r="C43" s="195" t="s">
+      <c r="A43" s="195"/>
+      <c r="B43" s="193"/>
+      <c r="C43" s="193" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="108" t="s">
@@ -26458,9 +26458,9 @@
       <c r="AS43" s="30"/>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="197"/>
-      <c r="B44" s="195"/>
-      <c r="C44" s="195"/>
+      <c r="A44" s="195"/>
+      <c r="B44" s="193"/>
+      <c r="C44" s="193"/>
       <c r="D44" s="108" t="s">
         <v>18</v>
       </c>
@@ -26507,9 +26507,9 @@
       <c r="AS44" s="30"/>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="197"/>
-      <c r="B45" s="195"/>
-      <c r="C45" s="195"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="193"/>
       <c r="D45" s="108" t="s">
         <v>19</v>
       </c>
@@ -26556,9 +26556,9 @@
       <c r="AS45" s="30"/>
     </row>
     <row r="46" spans="1:45">
-      <c r="A46" s="197"/>
-      <c r="B46" s="195"/>
-      <c r="C46" s="195" t="s">
+      <c r="A46" s="195"/>
+      <c r="B46" s="193"/>
+      <c r="C46" s="193" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="108" t="s">
@@ -26607,9 +26607,9 @@
       <c r="AS46" s="30"/>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="198"/>
-      <c r="B47" s="195"/>
-      <c r="C47" s="195"/>
+      <c r="A47" s="196"/>
+      <c r="B47" s="193"/>
+      <c r="C47" s="193"/>
       <c r="D47" s="108" t="s">
         <v>18</v>
       </c>
@@ -26673,6 +26673,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C13:C19"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="A13:A47"/>
@@ -26689,16 +26699,6 @@
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="B13:B32"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:C19"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26718,133 +26718,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="213"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="209"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="216"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="207"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="209"/>
+      <c r="A3" s="214"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="216"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="210"/>
-      <c r="B4" s="211"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
-      <c r="O4" s="212"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="218"/>
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="218"/>
+      <c r="O4" s="219"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="114">
         <v>1</v>
       </c>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="214"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
+      <c r="H5" s="207"/>
+      <c r="I5" s="207"/>
+      <c r="J5" s="207"/>
+      <c r="K5" s="207"/>
+      <c r="L5" s="207"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="208"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="115">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="213"/>
-      <c r="I6" s="213"/>
-      <c r="J6" s="213"/>
-      <c r="K6" s="213"/>
-      <c r="L6" s="213"/>
-      <c r="M6" s="213"/>
-      <c r="N6" s="213"/>
-      <c r="O6" s="214"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="208"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="115">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="213"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="213"/>
-      <c r="K7" s="213"/>
-      <c r="L7" s="213"/>
-      <c r="M7" s="213"/>
-      <c r="N7" s="213"/>
-      <c r="O7" s="214"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="207"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="207"/>
+      <c r="M7" s="207"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="208"/>
       <c r="W7" s="39"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="39"/>
@@ -26861,20 +26861,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="214"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="208"/>
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
@@ -26891,20 +26891,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
-      <c r="N9" s="213"/>
-      <c r="O9" s="214"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="208"/>
       <c r="W9" s="39"/>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
@@ -26921,20 +26921,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="213"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="213"/>
-      <c r="L10" s="213"/>
-      <c r="M10" s="213"/>
-      <c r="N10" s="213"/>
-      <c r="O10" s="214"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="207"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="208"/>
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
@@ -26951,20 +26951,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="213"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="213"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="213"/>
-      <c r="H11" s="213"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213"/>
-      <c r="N11" s="213"/>
-      <c r="O11" s="214"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="207"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="207"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="207"/>
+      <c r="L11" s="207"/>
+      <c r="M11" s="207"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="208"/>
       <c r="W11" s="39"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -26981,20 +26981,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="213"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="213"/>
-      <c r="L12" s="213"/>
-      <c r="M12" s="213"/>
-      <c r="N12" s="213"/>
-      <c r="O12" s="214"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="208"/>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -27011,20 +27011,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="213"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="213"/>
-      <c r="L13" s="213"/>
-      <c r="M13" s="213"/>
-      <c r="N13" s="213"/>
-      <c r="O13" s="214"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="207"/>
+      <c r="L13" s="207"/>
+      <c r="M13" s="207"/>
+      <c r="N13" s="207"/>
+      <c r="O13" s="208"/>
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -27041,20 +27041,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="213"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="213"/>
-      <c r="L14" s="213"/>
-      <c r="M14" s="213"/>
-      <c r="N14" s="213"/>
-      <c r="O14" s="214"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="207"/>
+      <c r="L14" s="207"/>
+      <c r="M14" s="207"/>
+      <c r="N14" s="207"/>
+      <c r="O14" s="208"/>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -27071,20 +27071,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="213"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="213"/>
-      <c r="L15" s="213"/>
-      <c r="M15" s="213"/>
-      <c r="N15" s="213"/>
-      <c r="O15" s="214"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="207"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="207"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="208"/>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -27101,20 +27101,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="213"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="213"/>
-      <c r="L16" s="213"/>
-      <c r="M16" s="213"/>
-      <c r="N16" s="213"/>
-      <c r="O16" s="214"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="207"/>
+      <c r="L16" s="207"/>
+      <c r="M16" s="207"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="208"/>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
       <c r="Y16" s="39"/>
@@ -27131,20 +27131,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="213"/>
-      <c r="L17" s="213"/>
-      <c r="M17" s="213"/>
-      <c r="N17" s="213"/>
-      <c r="O17" s="214"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="207"/>
+      <c r="K17" s="207"/>
+      <c r="L17" s="207"/>
+      <c r="M17" s="207"/>
+      <c r="N17" s="207"/>
+      <c r="O17" s="208"/>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
@@ -27161,20 +27161,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
-      <c r="M18" s="213"/>
-      <c r="N18" s="213"/>
-      <c r="O18" s="214"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="207"/>
+      <c r="L18" s="207"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="208"/>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
@@ -27191,20 +27191,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="213"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="213"/>
-      <c r="L19" s="213"/>
-      <c r="M19" s="213"/>
-      <c r="N19" s="213"/>
-      <c r="O19" s="214"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="207"/>
+      <c r="K19" s="207"/>
+      <c r="L19" s="207"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="208"/>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
@@ -27221,20 +27221,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="213"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="213"/>
-      <c r="L20" s="213"/>
-      <c r="M20" s="213"/>
-      <c r="N20" s="213"/>
-      <c r="O20" s="214"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="207"/>
+      <c r="M20" s="207"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="208"/>
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
@@ -27251,20 +27251,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="213"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
-      <c r="N21" s="213"/>
-      <c r="O21" s="214"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="207"/>
+      <c r="K21" s="207"/>
+      <c r="L21" s="207"/>
+      <c r="M21" s="207"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="208"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -27281,20 +27281,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="213"/>
-      <c r="L22" s="213"/>
-      <c r="M22" s="213"/>
-      <c r="N22" s="213"/>
-      <c r="O22" s="214"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="207"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="207"/>
+      <c r="L22" s="207"/>
+      <c r="M22" s="207"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="208"/>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
@@ -27311,20 +27311,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="213"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="213"/>
-      <c r="M23" s="213"/>
-      <c r="N23" s="213"/>
-      <c r="O23" s="214"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="207"/>
+      <c r="K23" s="207"/>
+      <c r="L23" s="207"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="208"/>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
@@ -27341,20 +27341,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="213"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="214"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="207"/>
+      <c r="L24" s="207"/>
+      <c r="M24" s="207"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="208"/>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
       <c r="Y24" s="39"/>
@@ -27371,20 +27371,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="213"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="213"/>
-      <c r="F25" s="213"/>
-      <c r="G25" s="213"/>
-      <c r="H25" s="213"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="213"/>
-      <c r="L25" s="213"/>
-      <c r="M25" s="213"/>
-      <c r="N25" s="213"/>
-      <c r="O25" s="214"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="207"/>
+      <c r="K25" s="207"/>
+      <c r="L25" s="207"/>
+      <c r="M25" s="207"/>
+      <c r="N25" s="207"/>
+      <c r="O25" s="208"/>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
@@ -27401,20 +27401,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="213"/>
-      <c r="L26" s="213"/>
-      <c r="M26" s="213"/>
-      <c r="N26" s="213"/>
-      <c r="O26" s="214"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="208"/>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
@@ -27431,20 +27431,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="213"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="213"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="213"/>
-      <c r="L27" s="213"/>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
-      <c r="O27" s="214"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="207"/>
+      <c r="K27" s="207"/>
+      <c r="L27" s="207"/>
+      <c r="M27" s="207"/>
+      <c r="N27" s="207"/>
+      <c r="O27" s="208"/>
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
@@ -27461,20 +27461,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="213"/>
-      <c r="F28" s="213"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="213"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="213"/>
-      <c r="L28" s="213"/>
-      <c r="M28" s="213"/>
-      <c r="N28" s="213"/>
-      <c r="O28" s="214"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="207"/>
+      <c r="K28" s="207"/>
+      <c r="L28" s="207"/>
+      <c r="M28" s="207"/>
+      <c r="N28" s="207"/>
+      <c r="O28" s="208"/>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
@@ -27491,20 +27491,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="213"/>
-      <c r="L29" s="213"/>
-      <c r="M29" s="213"/>
-      <c r="N29" s="213"/>
-      <c r="O29" s="214"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="207"/>
+      <c r="L29" s="207"/>
+      <c r="M29" s="207"/>
+      <c r="N29" s="207"/>
+      <c r="O29" s="208"/>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
       <c r="Y29" s="39"/>
@@ -27521,20 +27521,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="213"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="213"/>
-      <c r="L30" s="213"/>
-      <c r="M30" s="213"/>
-      <c r="N30" s="213"/>
-      <c r="O30" s="214"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="208"/>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
@@ -27551,20 +27551,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="213"/>
-      <c r="L31" s="213"/>
-      <c r="M31" s="213"/>
-      <c r="N31" s="213"/>
-      <c r="O31" s="214"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="207"/>
+      <c r="N31" s="207"/>
+      <c r="O31" s="208"/>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
       <c r="Y31" s="39"/>
@@ -27581,20 +27581,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="213"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="213"/>
-      <c r="M32" s="213"/>
-      <c r="N32" s="213"/>
-      <c r="O32" s="214"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="207"/>
+      <c r="M32" s="207"/>
+      <c r="N32" s="207"/>
+      <c r="O32" s="208"/>
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
       <c r="Y32" s="39"/>
@@ -27611,20 +27611,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="213"/>
-      <c r="L33" s="213"/>
-      <c r="M33" s="213"/>
-      <c r="N33" s="213"/>
-      <c r="O33" s="214"/>
+      <c r="B33" s="207"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="207"/>
+      <c r="N33" s="207"/>
+      <c r="O33" s="208"/>
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
       <c r="Y33" s="39"/>
@@ -27641,20 +27641,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="213"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="213"/>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="214"/>
+      <c r="B34" s="207"/>
+      <c r="C34" s="207"/>
+      <c r="D34" s="207"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="207"/>
+      <c r="I34" s="207"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="207"/>
+      <c r="L34" s="207"/>
+      <c r="M34" s="207"/>
+      <c r="N34" s="207"/>
+      <c r="O34" s="208"/>
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
       <c r="Y34" s="39"/>
@@ -27671,20 +27671,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="213"/>
-      <c r="C35" s="213"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="213"/>
-      <c r="L35" s="213"/>
-      <c r="M35" s="213"/>
-      <c r="N35" s="213"/>
-      <c r="O35" s="214"/>
+      <c r="B35" s="207"/>
+      <c r="C35" s="207"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="207"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="207"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="207"/>
+      <c r="K35" s="207"/>
+      <c r="L35" s="207"/>
+      <c r="M35" s="207"/>
+      <c r="N35" s="207"/>
+      <c r="O35" s="208"/>
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
       <c r="Y35" s="39"/>
@@ -27701,20 +27701,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="213"/>
-      <c r="C36" s="213"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="213"/>
-      <c r="G36" s="213"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="213"/>
-      <c r="L36" s="213"/>
-      <c r="M36" s="213"/>
-      <c r="N36" s="213"/>
-      <c r="O36" s="214"/>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
+      <c r="I36" s="207"/>
+      <c r="J36" s="207"/>
+      <c r="K36" s="207"/>
+      <c r="L36" s="207"/>
+      <c r="M36" s="207"/>
+      <c r="N36" s="207"/>
+      <c r="O36" s="208"/>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="39"/>
@@ -27731,20 +27731,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="213"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="213"/>
-      <c r="L37" s="213"/>
-      <c r="M37" s="213"/>
-      <c r="N37" s="213"/>
-      <c r="O37" s="214"/>
+      <c r="B37" s="207"/>
+      <c r="C37" s="207"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="207"/>
+      <c r="L37" s="207"/>
+      <c r="M37" s="207"/>
+      <c r="N37" s="207"/>
+      <c r="O37" s="208"/>
       <c r="W37" s="39"/>
       <c r="X37" s="39"/>
       <c r="Y37" s="39"/>
@@ -27761,20 +27761,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="213"/>
-      <c r="C38" s="213"/>
-      <c r="D38" s="213"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="213"/>
-      <c r="L38" s="213"/>
-      <c r="M38" s="213"/>
-      <c r="N38" s="213"/>
-      <c r="O38" s="214"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="207"/>
+      <c r="N38" s="207"/>
+      <c r="O38" s="208"/>
       <c r="W38" s="39"/>
       <c r="X38" s="39"/>
       <c r="Y38" s="39"/>
@@ -27791,20 +27791,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="213"/>
-      <c r="C39" s="213"/>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="213"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="213"/>
-      <c r="L39" s="213"/>
-      <c r="M39" s="213"/>
-      <c r="N39" s="213"/>
-      <c r="O39" s="214"/>
+      <c r="B39" s="207"/>
+      <c r="C39" s="207"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="207"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="207"/>
+      <c r="N39" s="207"/>
+      <c r="O39" s="208"/>
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
       <c r="Y39" s="39"/>
@@ -27821,20 +27821,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="213"/>
-      <c r="C40" s="213"/>
-      <c r="D40" s="213"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="213"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="213"/>
-      <c r="L40" s="213"/>
-      <c r="M40" s="213"/>
-      <c r="N40" s="213"/>
-      <c r="O40" s="214"/>
+      <c r="B40" s="207"/>
+      <c r="C40" s="207"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="207"/>
+      <c r="M40" s="207"/>
+      <c r="N40" s="207"/>
+      <c r="O40" s="208"/>
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
       <c r="Y40" s="39"/>
@@ -27851,20 +27851,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="213"/>
-      <c r="C41" s="213"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="213"/>
-      <c r="L41" s="213"/>
-      <c r="M41" s="213"/>
-      <c r="N41" s="213"/>
-      <c r="O41" s="214"/>
+      <c r="B41" s="207"/>
+      <c r="C41" s="207"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="207"/>
+      <c r="G41" s="207"/>
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="207"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="207"/>
+      <c r="M41" s="207"/>
+      <c r="N41" s="207"/>
+      <c r="O41" s="208"/>
       <c r="W41" s="39"/>
       <c r="X41" s="39"/>
       <c r="Y41" s="39"/>
@@ -27881,20 +27881,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="215"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="215"/>
-      <c r="E42" s="215"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="215"/>
-      <c r="H42" s="215"/>
-      <c r="I42" s="215"/>
-      <c r="J42" s="215"/>
-      <c r="K42" s="215"/>
-      <c r="L42" s="215"/>
-      <c r="M42" s="215"/>
-      <c r="N42" s="215"/>
-      <c r="O42" s="216"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="209"/>
+      <c r="D42" s="209"/>
+      <c r="E42" s="209"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="209"/>
+      <c r="H42" s="209"/>
+      <c r="I42" s="209"/>
+      <c r="J42" s="209"/>
+      <c r="K42" s="209"/>
+      <c r="L42" s="209"/>
+      <c r="M42" s="209"/>
+      <c r="N42" s="209"/>
+      <c r="O42" s="210"/>
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
       <c r="Y42" s="39"/>
@@ -27944,6 +27944,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -27953,36 +27983,6 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27994,7 +27994,7 @@
   <dimension ref="A1:BA173"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="Y58" sqref="Y58"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28010,14 +28010,14 @@
       <c r="D1" s="117"/>
       <c r="E1" s="117"/>
       <c r="F1" s="117"/>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
       <c r="M1" s="117"/>
       <c r="N1" s="117"/>
       <c r="O1" s="117"/>
@@ -28067,12 +28067,12 @@
       <c r="D2" s="117"/>
       <c r="E2" s="117"/>
       <c r="F2" s="117"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
       <c r="M2" s="117"/>
       <c r="N2" s="117"/>
       <c r="O2" s="117"/>
@@ -28122,12 +28122,12 @@
       <c r="D3" s="117"/>
       <c r="E3" s="117"/>
       <c r="F3" s="117"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
       <c r="M3" s="117"/>
       <c r="N3" s="117"/>
       <c r="O3" s="117"/>
@@ -28177,18 +28177,18 @@
       <c r="D4" s="117"/>
       <c r="E4" s="117"/>
       <c r="F4" s="117"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
       <c r="M4" s="117"/>
       <c r="N4" s="117"/>
       <c r="O4" s="117"/>
       <c r="P4" s="117"/>
       <c r="Q4" s="117"/>
-      <c r="R4" s="217"/>
+      <c r="R4" s="142"/>
       <c r="S4" s="118"/>
       <c r="T4" s="117"/>
       <c r="U4" s="117"/>
@@ -28226,25 +28226,25 @@
       <c r="BA4" s="117"/>
     </row>
     <row r="5" spans="1:53" ht="14.25" customHeight="1">
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="219"/>
-      <c r="R5" s="218"/>
-      <c r="S5" s="219" t="s">
+      <c r="C5" s="144"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="219"/>
-      <c r="AJ5" s="219" t="s">
+      <c r="T5" s="144"/>
+      <c r="AJ5" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="AK5" s="219"/>
+      <c r="AK5" s="144"/>
     </row>
     <row r="6" spans="1:53" ht="14.25" customHeight="1">
       <c r="B6" t="s">
         <v>158</v>
       </c>
-      <c r="R6" s="218"/>
+      <c r="R6" s="143"/>
       <c r="S6" s="30"/>
     </row>
     <row r="7" spans="1:53" ht="14.25" customHeight="1">
@@ -28254,7 +28254,7 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="218"/>
+      <c r="R7" s="143"/>
       <c r="S7" s="30" t="s">
         <v>159</v>
       </c>
@@ -28263,26 +28263,26 @@
       <c r="C8" t="s">
         <v>226</v>
       </c>
-      <c r="R8" s="218"/>
+      <c r="R8" s="143"/>
       <c r="S8" s="30"/>
     </row>
     <row r="9" spans="1:53">
       <c r="C9" t="s">
         <v>227</v>
       </c>
-      <c r="R9" s="218"/>
+      <c r="R9" s="143"/>
       <c r="S9" s="30"/>
     </row>
     <row r="10" spans="1:53">
-      <c r="R10" s="218"/>
+      <c r="R10" s="143"/>
       <c r="S10" s="30"/>
     </row>
     <row r="11" spans="1:53">
-      <c r="R11" s="218"/>
+      <c r="R11" s="143"/>
       <c r="S11" s="30"/>
     </row>
     <row r="12" spans="1:53">
-      <c r="R12" s="218"/>
+      <c r="R12" s="143"/>
       <c r="S12" s="30"/>
     </row>
     <row r="13" spans="1:53">
@@ -28303,7 +28303,7 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
-      <c r="R13" s="218"/>
+      <c r="R13" s="143"/>
       <c r="S13" s="30"/>
     </row>
     <row r="14" spans="1:53">
@@ -28324,7 +28324,7 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
-      <c r="R14" s="218"/>
+      <c r="R14" s="143"/>
       <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:53">
@@ -28345,7 +28345,7 @@
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
-      <c r="R15" s="218"/>
+      <c r="R15" s="143"/>
       <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:53">
@@ -28366,7 +28366,7 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
-      <c r="R16" s="218"/>
+      <c r="R16" s="143"/>
       <c r="S16" s="30"/>
     </row>
     <row r="17" spans="1:21">
@@ -28387,7 +28387,7 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
-      <c r="R17" s="218"/>
+      <c r="R17" s="143"/>
       <c r="S17" s="30"/>
       <c r="U17" s="22"/>
     </row>
@@ -28409,7 +28409,7 @@
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
-      <c r="R18" s="218"/>
+      <c r="R18" s="143"/>
       <c r="S18" s="30"/>
     </row>
     <row r="19" spans="1:21">
@@ -28430,7 +28430,7 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
-      <c r="R19" s="218"/>
+      <c r="R19" s="143"/>
       <c r="S19" s="30"/>
     </row>
     <row r="20" spans="1:21">
@@ -28451,7 +28451,7 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
-      <c r="R20" s="218"/>
+      <c r="R20" s="143"/>
       <c r="S20" s="30"/>
     </row>
     <row r="21" spans="1:21">
@@ -28472,7 +28472,7 @@
       <c r="O21" s="24"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
-      <c r="R21" s="218"/>
+      <c r="R21" s="143"/>
       <c r="S21" s="30"/>
     </row>
     <row r="22" spans="1:21">
@@ -28493,7 +28493,7 @@
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
-      <c r="R22" s="218"/>
+      <c r="R22" s="143"/>
       <c r="S22" s="30"/>
     </row>
     <row r="23" spans="1:21">
@@ -28514,7 +28514,7 @@
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
-      <c r="R23" s="218"/>
+      <c r="R23" s="143"/>
       <c r="S23" s="30"/>
     </row>
     <row r="24" spans="1:21">
@@ -28535,7 +28535,7 @@
       <c r="O24" s="24"/>
       <c r="P24" s="24"/>
       <c r="Q24" s="24"/>
-      <c r="R24" s="218"/>
+      <c r="R24" s="143"/>
       <c r="S24" s="30"/>
     </row>
     <row r="25" spans="1:21">
@@ -28556,7 +28556,7 @@
       <c r="O25" s="24"/>
       <c r="P25" s="24"/>
       <c r="Q25" s="24"/>
-      <c r="R25" s="218"/>
+      <c r="R25" s="143"/>
       <c r="S25" s="30"/>
     </row>
     <row r="26" spans="1:21">
@@ -28577,7 +28577,7 @@
       <c r="O26" s="24"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
-      <c r="R26" s="218"/>
+      <c r="R26" s="143"/>
       <c r="S26" s="30"/>
     </row>
     <row r="27" spans="1:21">
@@ -28598,7 +28598,7 @@
       <c r="O27" s="24"/>
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
-      <c r="R27" s="218"/>
+      <c r="R27" s="143"/>
       <c r="S27" s="30"/>
     </row>
     <row r="28" spans="1:21">
@@ -28619,7 +28619,7 @@
       <c r="O28" s="24"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
-      <c r="R28" s="218"/>
+      <c r="R28" s="143"/>
       <c r="S28" s="30"/>
     </row>
     <row r="29" spans="1:21">
@@ -28640,7 +28640,7 @@
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
-      <c r="R29" s="218"/>
+      <c r="R29" s="143"/>
       <c r="S29" s="30"/>
     </row>
     <row r="30" spans="1:21">
@@ -28661,7 +28661,7 @@
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
-      <c r="R30" s="218"/>
+      <c r="R30" s="143"/>
       <c r="S30" s="30"/>
     </row>
     <row r="31" spans="1:21">
@@ -28682,7 +28682,7 @@
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
       <c r="Q31" s="24"/>
-      <c r="R31" s="218"/>
+      <c r="R31" s="143"/>
       <c r="S31" s="30"/>
     </row>
     <row r="32" spans="1:21">
@@ -28703,7 +28703,7 @@
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
       <c r="Q32" s="24"/>
-      <c r="R32" s="218"/>
+      <c r="R32" s="143"/>
       <c r="S32" s="30"/>
     </row>
     <row r="33" spans="1:19">
@@ -28724,7 +28724,7 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
       <c r="Q33" s="24"/>
-      <c r="R33" s="218"/>
+      <c r="R33" s="143"/>
       <c r="S33" s="30"/>
     </row>
     <row r="34" spans="1:19">
@@ -28745,7 +28745,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
       <c r="Q34" s="24"/>
-      <c r="R34" s="218"/>
+      <c r="R34" s="143"/>
       <c r="S34" s="30"/>
     </row>
     <row r="35" spans="1:19">
@@ -28766,7 +28766,7 @@
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
       <c r="Q35" s="24"/>
-      <c r="R35" s="218"/>
+      <c r="R35" s="143"/>
       <c r="S35" s="30"/>
     </row>
     <row r="36" spans="1:19">
@@ -28787,7 +28787,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
       <c r="Q36" s="24"/>
-      <c r="R36" s="218"/>
+      <c r="R36" s="143"/>
       <c r="S36" s="30"/>
     </row>
     <row r="37" spans="1:19">
@@ -28808,7 +28808,7 @@
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
       <c r="Q37" s="24"/>
-      <c r="R37" s="218"/>
+      <c r="R37" s="143"/>
       <c r="S37" s="30"/>
     </row>
     <row r="38" spans="1:19">
@@ -28829,7 +28829,7 @@
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
-      <c r="R38" s="218"/>
+      <c r="R38" s="143"/>
       <c r="S38" s="30"/>
     </row>
     <row r="39" spans="1:19">
@@ -28850,7 +28850,7 @@
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
-      <c r="R39" s="218"/>
+      <c r="R39" s="143"/>
       <c r="S39" s="30"/>
     </row>
     <row r="40" spans="1:19">
@@ -28871,7 +28871,7 @@
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
       <c r="Q40" s="24"/>
-      <c r="R40" s="218"/>
+      <c r="R40" s="143"/>
       <c r="S40" s="30"/>
     </row>
     <row r="41" spans="1:19">
@@ -28892,7 +28892,7 @@
       <c r="O41" s="24"/>
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
-      <c r="R41" s="218"/>
+      <c r="R41" s="143"/>
       <c r="S41" s="30"/>
     </row>
     <row r="42" spans="1:19">
@@ -28913,7 +28913,7 @@
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
-      <c r="R42" s="218"/>
+      <c r="R42" s="143"/>
       <c r="S42" s="30"/>
     </row>
     <row r="43" spans="1:19">
@@ -28934,7 +28934,7 @@
       <c r="O43" s="24"/>
       <c r="P43" s="24"/>
       <c r="Q43" s="24"/>
-      <c r="R43" s="218"/>
+      <c r="R43" s="143"/>
       <c r="S43" s="30"/>
     </row>
     <row r="44" spans="1:19">
@@ -28955,7 +28955,7 @@
       <c r="O44" s="24"/>
       <c r="P44" s="24"/>
       <c r="Q44" s="24"/>
-      <c r="R44" s="218"/>
+      <c r="R44" s="143"/>
       <c r="S44" s="30"/>
     </row>
     <row r="45" spans="1:19">
@@ -28976,7 +28976,7 @@
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
       <c r="Q45" s="24"/>
-      <c r="R45" s="218"/>
+      <c r="R45" s="143"/>
       <c r="S45" s="30"/>
     </row>
     <row r="46" spans="1:19">
@@ -28997,7 +28997,7 @@
       <c r="O46" s="24"/>
       <c r="P46" s="24"/>
       <c r="Q46" s="24"/>
-      <c r="R46" s="218"/>
+      <c r="R46" s="143"/>
       <c r="S46" s="30"/>
     </row>
     <row r="47" spans="1:19">
@@ -29018,7 +29018,7 @@
       <c r="O47" s="24"/>
       <c r="P47" s="24"/>
       <c r="Q47" s="24"/>
-      <c r="R47" s="218"/>
+      <c r="R47" s="143"/>
       <c r="S47" s="30"/>
     </row>
     <row r="48" spans="1:19">
@@ -29039,7 +29039,7 @@
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
       <c r="Q48" s="24"/>
-      <c r="R48" s="218"/>
+      <c r="R48" s="143"/>
       <c r="S48" s="30"/>
     </row>
     <row r="49" spans="1:33">
@@ -29060,7 +29060,7 @@
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="24"/>
-      <c r="R49" s="218"/>
+      <c r="R49" s="143"/>
       <c r="S49" s="30"/>
     </row>
     <row r="50" spans="1:33">
@@ -29081,7 +29081,7 @@
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
       <c r="Q50" s="24"/>
-      <c r="R50" s="218"/>
+      <c r="R50" s="143"/>
       <c r="S50" s="30"/>
     </row>
     <row r="51" spans="1:33">
@@ -29102,7 +29102,7 @@
       <c r="O51" s="24"/>
       <c r="P51" s="24"/>
       <c r="Q51" s="24"/>
-      <c r="R51" s="218"/>
+      <c r="R51" s="143"/>
       <c r="S51" s="30"/>
     </row>
     <row r="52" spans="1:33">
@@ -29123,7 +29123,7 @@
       <c r="O52" s="24"/>
       <c r="P52" s="24"/>
       <c r="Q52" s="24"/>
-      <c r="R52" s="218"/>
+      <c r="R52" s="143"/>
       <c r="S52" s="30"/>
     </row>
     <row r="53" spans="1:33">
@@ -29144,7 +29144,7 @@
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
-      <c r="R53" s="218"/>
+      <c r="R53" s="143"/>
       <c r="S53" s="30"/>
     </row>
     <row r="54" spans="1:33">
@@ -29165,7 +29165,7 @@
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
       <c r="Q54" s="24"/>
-      <c r="R54" s="218"/>
+      <c r="R54" s="143"/>
       <c r="S54" s="30"/>
     </row>
     <row r="55" spans="1:33">
@@ -29186,7 +29186,7 @@
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
       <c r="Q55" s="24"/>
-      <c r="R55" s="218"/>
+      <c r="R55" s="143"/>
       <c r="S55" s="30"/>
     </row>
     <row r="56" spans="1:33">
@@ -29207,7 +29207,7 @@
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
       <c r="Q56" s="24"/>
-      <c r="R56" s="218"/>
+      <c r="R56" s="143"/>
       <c r="S56" s="30"/>
     </row>
     <row r="57" spans="1:33">
@@ -29227,7 +29227,7 @@
       <c r="O57" s="24"/>
       <c r="P57" s="24"/>
       <c r="Q57" s="24"/>
-      <c r="R57" s="218"/>
+      <c r="R57" s="143"/>
       <c r="S57" s="30"/>
     </row>
     <row r="58" spans="1:33">
@@ -29246,7 +29246,7 @@
       <c r="O58" s="24"/>
       <c r="P58" s="24"/>
       <c r="Q58" s="24"/>
-      <c r="R58" s="218"/>
+      <c r="R58" s="143"/>
       <c r="S58" s="30"/>
       <c r="Y58" s="22" t="s">
         <v>231</v>
@@ -29273,7 +29273,7 @@
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
       <c r="Q59" s="24"/>
-      <c r="R59" s="218"/>
+      <c r="R59" s="143"/>
       <c r="S59" s="30"/>
     </row>
     <row r="60" spans="1:33">
@@ -29294,7 +29294,7 @@
       <c r="O60" s="24"/>
       <c r="P60" s="24"/>
       <c r="Q60" s="24"/>
-      <c r="R60" s="218"/>
+      <c r="R60" s="143"/>
       <c r="S60" s="30"/>
     </row>
     <row r="61" spans="1:33">
@@ -29315,7 +29315,7 @@
       <c r="O61" s="24"/>
       <c r="P61" s="24"/>
       <c r="Q61" s="24"/>
-      <c r="R61" s="218"/>
+      <c r="R61" s="143"/>
       <c r="S61" s="30"/>
     </row>
     <row r="62" spans="1:33">
@@ -29336,459 +29336,459 @@
       <c r="O62" s="24"/>
       <c r="P62" s="24"/>
       <c r="Q62" s="24"/>
-      <c r="R62" s="218"/>
+      <c r="R62" s="143"/>
       <c r="S62" s="30"/>
     </row>
     <row r="63" spans="1:33">
-      <c r="R63" s="218"/>
+      <c r="R63" s="143"/>
       <c r="S63" s="30"/>
     </row>
     <row r="64" spans="1:33">
-      <c r="R64" s="218"/>
+      <c r="R64" s="143"/>
       <c r="S64" s="30" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="65" spans="9:48">
-      <c r="R65" s="218"/>
+      <c r="R65" s="143"/>
       <c r="S65" s="30"/>
     </row>
     <row r="66" spans="9:48">
-      <c r="R66" s="218"/>
+      <c r="R66" s="143"/>
       <c r="S66" s="30"/>
     </row>
     <row r="67" spans="9:48">
-      <c r="R67" s="218"/>
+      <c r="R67" s="143"/>
       <c r="S67" s="30"/>
       <c r="AV67" s="22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="68" spans="9:48">
-      <c r="R68" s="218"/>
+      <c r="R68" s="143"/>
       <c r="S68" s="30"/>
     </row>
     <row r="69" spans="9:48">
-      <c r="R69" s="218"/>
+      <c r="R69" s="143"/>
       <c r="S69" s="30"/>
     </row>
     <row r="70" spans="9:48">
       <c r="I70" t="s">
         <v>31</v>
       </c>
-      <c r="R70" s="218"/>
+      <c r="R70" s="143"/>
       <c r="S70" s="30"/>
     </row>
     <row r="71" spans="9:48">
-      <c r="R71" s="218"/>
+      <c r="R71" s="143"/>
       <c r="S71" s="30"/>
     </row>
     <row r="72" spans="9:48">
-      <c r="R72" s="218"/>
+      <c r="R72" s="143"/>
       <c r="S72" s="30"/>
     </row>
     <row r="73" spans="9:48">
-      <c r="R73" s="218"/>
+      <c r="R73" s="143"/>
       <c r="S73" s="30"/>
     </row>
     <row r="74" spans="9:48">
-      <c r="R74" s="218"/>
+      <c r="R74" s="143"/>
       <c r="S74" s="30"/>
     </row>
     <row r="75" spans="9:48">
-      <c r="R75" s="218"/>
+      <c r="R75" s="143"/>
       <c r="S75" s="30"/>
     </row>
     <row r="76" spans="9:48">
-      <c r="R76" s="218"/>
+      <c r="R76" s="143"/>
       <c r="S76" s="30"/>
     </row>
     <row r="77" spans="9:48">
-      <c r="R77" s="218"/>
+      <c r="R77" s="143"/>
       <c r="S77" s="30"/>
     </row>
     <row r="78" spans="9:48">
-      <c r="R78" s="218"/>
+      <c r="R78" s="143"/>
       <c r="S78" s="30"/>
     </row>
     <row r="79" spans="9:48">
-      <c r="R79" s="218"/>
+      <c r="R79" s="143"/>
       <c r="S79" s="30"/>
     </row>
     <row r="80" spans="9:48">
-      <c r="R80" s="218"/>
+      <c r="R80" s="143"/>
       <c r="S80" s="30"/>
     </row>
     <row r="81" spans="18:19">
-      <c r="R81" s="218"/>
+      <c r="R81" s="143"/>
       <c r="S81" s="30"/>
     </row>
     <row r="82" spans="18:19">
-      <c r="R82" s="218"/>
+      <c r="R82" s="143"/>
       <c r="S82" s="30"/>
     </row>
     <row r="83" spans="18:19">
-      <c r="R83" s="218"/>
+      <c r="R83" s="143"/>
       <c r="S83" s="30"/>
     </row>
     <row r="84" spans="18:19">
-      <c r="R84" s="218"/>
+      <c r="R84" s="143"/>
       <c r="S84" s="30"/>
     </row>
     <row r="85" spans="18:19">
-      <c r="R85" s="218"/>
+      <c r="R85" s="143"/>
       <c r="S85" s="30"/>
     </row>
     <row r="86" spans="18:19">
-      <c r="R86" s="218"/>
+      <c r="R86" s="143"/>
       <c r="S86" s="30"/>
     </row>
     <row r="87" spans="18:19">
-      <c r="R87" s="218"/>
+      <c r="R87" s="143"/>
       <c r="S87" s="30"/>
     </row>
     <row r="88" spans="18:19">
-      <c r="R88" s="218"/>
+      <c r="R88" s="143"/>
       <c r="S88" s="30"/>
     </row>
     <row r="89" spans="18:19">
-      <c r="R89" s="218"/>
+      <c r="R89" s="143"/>
       <c r="S89" s="30"/>
     </row>
     <row r="90" spans="18:19">
-      <c r="R90" s="218"/>
+      <c r="R90" s="143"/>
       <c r="S90" s="30"/>
     </row>
     <row r="91" spans="18:19">
-      <c r="R91" s="218"/>
+      <c r="R91" s="143"/>
       <c r="S91" s="30"/>
     </row>
     <row r="92" spans="18:19">
-      <c r="R92" s="218"/>
+      <c r="R92" s="143"/>
       <c r="S92" s="30"/>
     </row>
     <row r="93" spans="18:19">
-      <c r="R93" s="218"/>
+      <c r="R93" s="143"/>
       <c r="S93" s="30"/>
     </row>
     <row r="94" spans="18:19">
-      <c r="R94" s="218"/>
+      <c r="R94" s="143"/>
       <c r="S94" s="30"/>
     </row>
     <row r="95" spans="18:19">
-      <c r="R95" s="218"/>
+      <c r="R95" s="143"/>
       <c r="S95" s="30"/>
     </row>
     <row r="96" spans="18:19">
-      <c r="R96" s="218"/>
+      <c r="R96" s="143"/>
       <c r="S96" s="30"/>
     </row>
     <row r="97" spans="18:19">
-      <c r="R97" s="218"/>
+      <c r="R97" s="143"/>
       <c r="S97" s="30"/>
     </row>
     <row r="98" spans="18:19">
-      <c r="R98" s="218"/>
+      <c r="R98" s="143"/>
       <c r="S98" s="30"/>
     </row>
     <row r="99" spans="18:19">
-      <c r="R99" s="218"/>
+      <c r="R99" s="143"/>
       <c r="S99" s="30"/>
     </row>
     <row r="100" spans="18:19">
-      <c r="R100" s="218"/>
+      <c r="R100" s="143"/>
       <c r="S100" s="30"/>
     </row>
     <row r="101" spans="18:19">
-      <c r="R101" s="218"/>
+      <c r="R101" s="143"/>
       <c r="S101" s="30"/>
     </row>
     <row r="102" spans="18:19">
-      <c r="R102" s="218"/>
+      <c r="R102" s="143"/>
       <c r="S102" s="30"/>
     </row>
     <row r="103" spans="18:19">
-      <c r="R103" s="218"/>
+      <c r="R103" s="143"/>
       <c r="S103" s="30"/>
     </row>
     <row r="104" spans="18:19">
-      <c r="R104" s="218"/>
+      <c r="R104" s="143"/>
       <c r="S104" s="30"/>
     </row>
     <row r="105" spans="18:19">
-      <c r="R105" s="218"/>
+      <c r="R105" s="143"/>
       <c r="S105" s="30"/>
     </row>
     <row r="106" spans="18:19">
-      <c r="R106" s="218"/>
+      <c r="R106" s="143"/>
       <c r="S106" s="30"/>
     </row>
     <row r="107" spans="18:19">
-      <c r="R107" s="218"/>
+      <c r="R107" s="143"/>
       <c r="S107" s="30"/>
     </row>
     <row r="108" spans="18:19">
-      <c r="R108" s="218"/>
+      <c r="R108" s="143"/>
       <c r="S108" s="30"/>
     </row>
     <row r="109" spans="18:19">
-      <c r="R109" s="218"/>
+      <c r="R109" s="143"/>
       <c r="S109" s="30"/>
     </row>
     <row r="110" spans="18:19">
-      <c r="R110" s="218"/>
+      <c r="R110" s="143"/>
       <c r="S110" s="30"/>
     </row>
     <row r="111" spans="18:19">
-      <c r="R111" s="218"/>
+      <c r="R111" s="143"/>
       <c r="S111" s="30"/>
     </row>
     <row r="112" spans="18:19">
-      <c r="R112" s="218"/>
+      <c r="R112" s="143"/>
       <c r="S112" s="30"/>
     </row>
     <row r="113" spans="18:19">
-      <c r="R113" s="218"/>
+      <c r="R113" s="143"/>
       <c r="S113" s="30"/>
     </row>
     <row r="114" spans="18:19">
-      <c r="R114" s="218"/>
+      <c r="R114" s="143"/>
       <c r="S114" s="30"/>
     </row>
     <row r="115" spans="18:19">
-      <c r="R115" s="218"/>
+      <c r="R115" s="143"/>
       <c r="S115" s="30"/>
     </row>
     <row r="116" spans="18:19">
-      <c r="R116" s="218"/>
+      <c r="R116" s="143"/>
       <c r="S116" s="30"/>
     </row>
     <row r="117" spans="18:19">
-      <c r="R117" s="218"/>
+      <c r="R117" s="143"/>
       <c r="S117" s="30"/>
     </row>
     <row r="118" spans="18:19">
-      <c r="R118" s="218"/>
+      <c r="R118" s="143"/>
       <c r="S118" s="30"/>
     </row>
     <row r="119" spans="18:19">
-      <c r="R119" s="218"/>
+      <c r="R119" s="143"/>
       <c r="S119" s="30"/>
     </row>
     <row r="120" spans="18:19">
-      <c r="R120" s="218"/>
+      <c r="R120" s="143"/>
       <c r="S120" s="30"/>
     </row>
     <row r="121" spans="18:19">
-      <c r="R121" s="218"/>
+      <c r="R121" s="143"/>
       <c r="S121" s="30"/>
     </row>
     <row r="122" spans="18:19">
-      <c r="R122" s="218"/>
+      <c r="R122" s="143"/>
       <c r="S122" s="30"/>
     </row>
     <row r="123" spans="18:19">
-      <c r="R123" s="218"/>
+      <c r="R123" s="143"/>
       <c r="S123" s="30"/>
     </row>
     <row r="124" spans="18:19">
-      <c r="R124" s="218"/>
+      <c r="R124" s="143"/>
       <c r="S124" s="30"/>
     </row>
     <row r="125" spans="18:19">
-      <c r="R125" s="218"/>
+      <c r="R125" s="143"/>
       <c r="S125" s="30"/>
     </row>
     <row r="126" spans="18:19">
-      <c r="R126" s="218"/>
+      <c r="R126" s="143"/>
       <c r="S126" s="30"/>
     </row>
     <row r="127" spans="18:19">
-      <c r="R127" s="218"/>
+      <c r="R127" s="143"/>
       <c r="S127" s="30"/>
     </row>
     <row r="128" spans="18:19">
-      <c r="R128" s="218"/>
+      <c r="R128" s="143"/>
       <c r="S128" s="30"/>
     </row>
     <row r="129" spans="18:19">
-      <c r="R129" s="218"/>
+      <c r="R129" s="143"/>
       <c r="S129" s="30"/>
     </row>
     <row r="130" spans="18:19">
-      <c r="R130" s="218"/>
+      <c r="R130" s="143"/>
       <c r="S130" s="30"/>
     </row>
     <row r="131" spans="18:19">
-      <c r="R131" s="218"/>
+      <c r="R131" s="143"/>
       <c r="S131" s="30"/>
     </row>
     <row r="132" spans="18:19">
-      <c r="R132" s="218"/>
+      <c r="R132" s="143"/>
       <c r="S132" s="30"/>
     </row>
     <row r="133" spans="18:19">
-      <c r="R133" s="218"/>
+      <c r="R133" s="143"/>
       <c r="S133" s="30"/>
     </row>
     <row r="134" spans="18:19">
-      <c r="R134" s="218"/>
+      <c r="R134" s="143"/>
       <c r="S134" s="30"/>
     </row>
     <row r="135" spans="18:19">
-      <c r="R135" s="218"/>
+      <c r="R135" s="143"/>
       <c r="S135" s="30"/>
     </row>
     <row r="136" spans="18:19">
-      <c r="R136" s="218"/>
+      <c r="R136" s="143"/>
       <c r="S136" s="30"/>
     </row>
     <row r="137" spans="18:19">
-      <c r="R137" s="218"/>
+      <c r="R137" s="143"/>
       <c r="S137" s="30"/>
     </row>
     <row r="138" spans="18:19">
-      <c r="R138" s="218"/>
+      <c r="R138" s="143"/>
       <c r="S138" s="30"/>
     </row>
     <row r="139" spans="18:19">
-      <c r="R139" s="218"/>
+      <c r="R139" s="143"/>
       <c r="S139" s="30"/>
     </row>
     <row r="140" spans="18:19">
-      <c r="R140" s="218"/>
+      <c r="R140" s="143"/>
       <c r="S140" s="30"/>
     </row>
     <row r="141" spans="18:19">
-      <c r="R141" s="218"/>
+      <c r="R141" s="143"/>
       <c r="S141" s="30"/>
     </row>
     <row r="142" spans="18:19">
-      <c r="R142" s="218"/>
+      <c r="R142" s="143"/>
       <c r="S142" s="30"/>
     </row>
     <row r="143" spans="18:19">
-      <c r="R143" s="218"/>
+      <c r="R143" s="143"/>
       <c r="S143" s="30"/>
     </row>
     <row r="144" spans="18:19">
-      <c r="R144" s="218"/>
+      <c r="R144" s="143"/>
       <c r="S144" s="30"/>
     </row>
     <row r="145" spans="18:19">
-      <c r="R145" s="218"/>
+      <c r="R145" s="143"/>
       <c r="S145" s="30"/>
     </row>
     <row r="146" spans="18:19">
-      <c r="R146" s="218"/>
+      <c r="R146" s="143"/>
       <c r="S146" s="30"/>
     </row>
     <row r="147" spans="18:19">
-      <c r="R147" s="218"/>
+      <c r="R147" s="143"/>
       <c r="S147" s="30"/>
     </row>
     <row r="148" spans="18:19">
-      <c r="R148" s="218"/>
+      <c r="R148" s="143"/>
       <c r="S148" s="30"/>
     </row>
     <row r="149" spans="18:19">
-      <c r="R149" s="218"/>
+      <c r="R149" s="143"/>
       <c r="S149" s="30"/>
     </row>
     <row r="150" spans="18:19">
-      <c r="R150" s="218"/>
+      <c r="R150" s="143"/>
       <c r="S150" s="30"/>
     </row>
     <row r="151" spans="18:19">
-      <c r="R151" s="218"/>
+      <c r="R151" s="143"/>
       <c r="S151" s="30"/>
     </row>
     <row r="152" spans="18:19">
-      <c r="R152" s="218"/>
+      <c r="R152" s="143"/>
       <c r="S152" s="30"/>
     </row>
     <row r="153" spans="18:19">
-      <c r="R153" s="218"/>
+      <c r="R153" s="143"/>
       <c r="S153" s="30"/>
     </row>
     <row r="154" spans="18:19">
-      <c r="R154" s="218"/>
+      <c r="R154" s="143"/>
       <c r="S154" s="30"/>
     </row>
     <row r="155" spans="18:19">
-      <c r="R155" s="218"/>
+      <c r="R155" s="143"/>
       <c r="S155" s="30"/>
     </row>
     <row r="156" spans="18:19">
-      <c r="R156" s="218"/>
+      <c r="R156" s="143"/>
       <c r="S156" s="30"/>
     </row>
     <row r="157" spans="18:19">
-      <c r="R157" s="218"/>
+      <c r="R157" s="143"/>
       <c r="S157" s="30"/>
     </row>
     <row r="158" spans="18:19">
-      <c r="R158" s="218"/>
+      <c r="R158" s="143"/>
       <c r="S158" s="30"/>
     </row>
     <row r="159" spans="18:19">
-      <c r="R159" s="218"/>
+      <c r="R159" s="143"/>
       <c r="S159" s="30"/>
     </row>
     <row r="160" spans="18:19">
-      <c r="R160" s="218"/>
+      <c r="R160" s="143"/>
       <c r="S160" s="30"/>
     </row>
     <row r="161" spans="18:19">
-      <c r="R161" s="218"/>
+      <c r="R161" s="143"/>
       <c r="S161" s="30"/>
     </row>
     <row r="162" spans="18:19">
-      <c r="R162" s="218"/>
+      <c r="R162" s="143"/>
       <c r="S162" s="30"/>
     </row>
     <row r="163" spans="18:19">
-      <c r="R163" s="218"/>
+      <c r="R163" s="143"/>
       <c r="S163" s="30"/>
     </row>
     <row r="164" spans="18:19">
-      <c r="R164" s="218"/>
+      <c r="R164" s="143"/>
       <c r="S164" s="30"/>
     </row>
     <row r="165" spans="18:19">
-      <c r="R165" s="218"/>
+      <c r="R165" s="143"/>
       <c r="S165" s="30"/>
     </row>
     <row r="166" spans="18:19">
-      <c r="R166" s="218"/>
+      <c r="R166" s="143"/>
       <c r="S166" s="30"/>
     </row>
     <row r="167" spans="18:19">
-      <c r="R167" s="218"/>
+      <c r="R167" s="143"/>
       <c r="S167" s="30"/>
     </row>
     <row r="168" spans="18:19">
-      <c r="R168" s="218"/>
+      <c r="R168" s="143"/>
       <c r="S168" s="30"/>
     </row>
     <row r="169" spans="18:19">
-      <c r="R169" s="218"/>
+      <c r="R169" s="143"/>
       <c r="S169" s="30"/>
     </row>
     <row r="170" spans="18:19">
-      <c r="R170" s="218"/>
+      <c r="R170" s="143"/>
       <c r="S170" s="30"/>
     </row>
     <row r="171" spans="18:19">
-      <c r="R171" s="218"/>
+      <c r="R171" s="143"/>
       <c r="S171" s="30"/>
     </row>
     <row r="172" spans="18:19">
-      <c r="R172" s="218"/>
+      <c r="R172" s="143"/>
       <c r="S172" s="30"/>
     </row>
     <row r="173" spans="18:19">
-      <c r="R173" s="218"/>
+      <c r="R173" s="143"/>
       <c r="S173" s="30"/>
     </row>
   </sheetData>
@@ -29836,84 +29836,84 @@
   </sheetPr>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
       <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
       <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
       <c r="P3" s="28"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
       <c r="P4" s="28"/>
     </row>
     <row r="5" spans="1:16">
@@ -29962,81 +29962,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="M134" sqref="M134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="81" t="s">
@@ -30160,73 +30160,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -30272,12 +30272,12 @@
       </c>
     </row>
     <row r="56" spans="9:73">
-      <c r="I56" s="151" t="s">
+      <c r="I56" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
       <c r="BU56" t="s">
         <v>163</v>
       </c>
@@ -30324,73 +30324,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -30415,10 +30415,10 @@
       <c r="CM38" s="121"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="151"/>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
@@ -30456,70 +30456,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
     </row>
@@ -30543,10 +30543,10 @@
       <c r="CM38" s="141"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="153"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="153"/>
-      <c r="L56" s="153"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
@@ -30580,73 +30580,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="146"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
       <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
       <c r="O4" s="28"/>
@@ -30680,70 +30680,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
     </row>
@@ -30761,10 +30761,10 @@
       <c r="CM38" s="141"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="153"/>
-      <c r="J56" s="153"/>
-      <c r="K56" s="153"/>
-      <c r="L56" s="153"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
